--- a/resources/tools/wordlist_E-J/lessons/lesson-10.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-10.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,180 +436,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to take (amount of time/money)</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>かかる</t>
+          <t>秋|あき</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to stay (at a hotel, etc)</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>泊まる|とまる</t>
+          <t>医者|いしゃ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to become</t>
+          <t>station</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>なる</t>
+          <t>駅|えき</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>to pay</t>
+          <t>rich person</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>払う|はらう</t>
+          <t>お金持ち|おかねもち</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>to decide</t>
+          <t>face</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>決める|きめる</t>
+          <t>顔|かお</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to travel</t>
+          <t>season</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>旅行する|りょこうする</t>
+          <t>季節|きせつ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to practice</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>練習する|れんしゅうする</t>
+          <t>牛乳|ぎゅうにゅう</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>We will be leaving soon.</t>
+          <t>credit card</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>まもなく発車します。|まもなくはっしゃします。</t>
+          <t>クレジットカード</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A train is arriving.</t>
+          <t>cake</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>電車が参ります。|でんしゃがまいります。</t>
+          <t>ケーキ</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Next (we'll stop at)...</t>
+          <t>this year</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>次は～に止まります。|つぎは～にとまります。</t>
+          <t>今年|ことし</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The doors are closing. Please be careful.</t>
+          <t>soccer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ドアが閉まります。ご注意ください。|ドアがしまります。ごちゅういください。</t>
+          <t>サッカー</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Does this train stop at Akihabara?</t>
+          <t>shirt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>この電車は秋葉原に止まりますか。|このでんしゃはあきはばらにとまりますか。</t>
+          <t>シャツ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>What time is the last train.</t>
+          <t>Shinkansen; Bullet Train</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>終電は何時ですか。|しゅうでんはなんじですか。</t>
+          <t>新幹線|しんかんせん</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>One reserved ticket to Tokyo, please.</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>東京までの指定席を一枚お願いします。|とうきょうまでのしていせきをいちまいおねがいします。</t>
+          <t>すし</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Can I get a student discount?</t>
+          <t>life; living</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>学割が使えますか。|がくわりがつかえますか。</t>
+          <t>生活|せいかつ</t>
         </is>
       </c>
     </row>
@@ -728,1348 +796,1348 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>local train</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>普通|ふつう</t>
+          <t>暖かい|あたたかい</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>express train</t>
+          <t>slow; late</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>急行|きゅうこう</t>
+          <t>遅い|おそい</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>super express train</t>
+          <t>cold (weather)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>特急|とっきゅう</t>
+          <t>涼しい|すずしい</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bound for...</t>
+          <t>cold (things/people)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>～行き|～いき</t>
+          <t>冷たい|つめたい</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>serving...areas</t>
+          <t>sleepy</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>～方面|～ほうめん</t>
+          <t>眠い|ねむい</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(boarding) ticket</t>
+          <t>easy; simple</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>乗車券|じょうしゃけん</t>
+          <t>簡単|かんたん（な）</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>coupons</t>
+          <t>to take (amount of time/money)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>回数券|かいすうけん</t>
+          <t>かかる</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>commuter's pass</t>
+          <t>to stay (at a hotel, etc)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>定期券|ていきけん</t>
+          <t>泊まる|とまる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>student discount</t>
+          <t>to become</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>学割|がくわり</t>
+          <t>なる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>reserved seat</t>
+          <t>to pay</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>指定席|していせき</t>
+          <t>払う|はらう</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>general admission seat</t>
+          <t>to decide</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>自由席|じゆうせき</t>
+          <t>決める|きめる</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>non-smoking car</t>
+          <t>to travel</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>禁煙車|きんえんしゃ</t>
+          <t>旅行する|りょこうする</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Car No.1</t>
+          <t>to practice</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>一号車|いちごうしゃ</t>
+          <t>練習する|れんしゅうする</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>round trip</t>
+          <t>on foot</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>往復|おうふく</t>
+          <t>歩いて|あるいて</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>one way</t>
+          <t>best</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>片道|かたみち</t>
+          <t>一番|いちばん</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>or</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>秋|あき</t>
+          <t>～か～</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>for...months</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>医者|いしゃ</t>
+          <t>～か月|～かげつ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>in...time; after...</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>駅|えき</t>
+          <t>～後|～ご</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rich person</t>
+          <t>these days</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>お金持ち|おかねもち</t>
+          <t>このごろ</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>face</t>
+          <t>for...weeks</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>顔|かお</t>
+          <t>～週間|～しゅうかん</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>season</t>
+          <t>by (means of transportation); with (a tool)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>季節|きせつ</t>
+          <t>～で</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>how; by what means</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>牛乳|ぎゅうにゅう</t>
+          <t>どうやって</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>credit card</t>
+          <t>which</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>クレジットカード</t>
+          <t>どちら／どっち</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cake</t>
+          <t>how much; how long</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ケーキ</t>
+          <t>どのぐらい</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>this year</t>
+          <t>...years</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>今年|ことし</t>
+          <t>～年|～ねん</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>soccer</t>
+          <t>(do something) early; fast</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>サッカー</t>
+          <t>早く／速く|はやく</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>shirt</t>
+          <t>local train</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>シャツ</t>
+          <t>普通|ふつう</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Shinkansen; Bullet Train</t>
+          <t>express train</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>新幹線|しんかんせん</t>
+          <t>急行|きゅうこう</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>super express train</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>すし</t>
+          <t>特急|とっきゅう</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>life; living</t>
+          <t>bound for...</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>生活|せいかつ</t>
+          <t>～行き|～いき</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>serving...areas</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>暖かい|あたたかい</t>
+          <t>～方面|～ほうめん</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>slow; late</t>
+          <t>(boarding) ticket</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>遅い|おそい</t>
+          <t>乗車券|じょうしゃけん</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cold (weather)</t>
+          <t>coupons</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>涼しい|すずしい</t>
+          <t>回数券|かいすうけん</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cold (things/people)</t>
+          <t>commuter's pass</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>冷たい|つめたい</t>
+          <t>定期券|ていきけん</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sleepy</t>
+          <t>student discount</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>眠い|ねむい</t>
+          <t>学割|がくわり</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>easy; simple</t>
+          <t>reserved seat</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>簡単|かんたん（な）</t>
+          <t>指定席|していせき</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>track number...</t>
+          <t>general admission seat</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>～番線|～ばんせん</t>
+          <t>自由席|じゆうせき</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ticket vending area</t>
+          <t>non-smoking car</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>切符売り場|きっぷうりば</t>
+          <t>禁煙車|きんえんしゃ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>gate</t>
+          <t>Car No.1</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>改札|かいさつ</t>
+          <t>一号車|いちごうしゃ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>round trip</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ホーム</t>
+          <t>往復|おうふく</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>shop; stand</t>
+          <t>one way</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>売店|ばいてん</t>
+          <t>片道|かたみち</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>track number...</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>出口|でぐち</t>
+          <t>～番線|～ばんせん</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>entrance</t>
+          <t>ticket vending area</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>入口|いりぐち</t>
+          <t>切符売り場|きっぷうりば</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>stairs</t>
+          <t>gate</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>階段|かいだん</t>
+          <t>改札|かいさつ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>first car; front end</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>いちばん前|いちばんまえ</t>
+          <t>ホーム</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>last car; tail end</t>
+          <t>shop; stand</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>いちばん後ろ|いちばんうしろ</t>
+          <t>売店|ばいてん</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>transfer</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>乗り換え|のりかえ</t>
+          <t>出口|でぐち</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>next (stop),...</t>
+          <t>entrance</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>次は～|つぎは～</t>
+          <t>入口|いりぐち</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>departing first</t>
+          <t>stairs</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>先発|せんぱつ</t>
+          <t>階段|かいだん</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>departing second</t>
+          <t>first car; front end</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>次発|じはつ</t>
+          <t>いちばん前|いちばんまえ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>last train</t>
+          <t>last car; tail end</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>終電|しゅうでん</t>
+          <t>いちばん後ろ|いちばんうしろ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>on foot</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>歩いて|あるいて</t>
+          <t>乗り換え|のりかえ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>next (stop),...</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>一番|いちばん</t>
+          <t>次は～|つぎは～</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>or</t>
+          <t>departing first</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>～か～</t>
+          <t>先発|せんぱつ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>for...months</t>
+          <t>departing second</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>～か月|～かげつ</t>
+          <t>次発|じはつ</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>in...time; after...</t>
+          <t>last train</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>～後|～ご</t>
+          <t>終電|しゅうでん</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>these days</t>
+          <t>We will be leaving soon.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>このごろ</t>
+          <t>まもなく発車します。|まもなくはっしゃします。</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>for...weeks</t>
+          <t>A train is arriving.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>～週間|～しゅうかん</t>
+          <t>電車が参ります。|でんしゃがまいります。</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>by (means of transportation); with (a tool)</t>
+          <t>Next (we'll stop at)...</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>～で</t>
+          <t>次は～に止まります。|つぎは～にとまります。</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>how; by what means</t>
+          <t>The doors are closing. Please be careful.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>どうやって</t>
+          <t>ドアが閉まります。ご注意ください。|ドアがしまります。ごちゅういください。</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>Does this train stop at Akihabara?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>どちら／どっち</t>
+          <t>この電車は秋葉原に止まりますか。|このでんしゃはあきはばらにとまりますか。</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>how much; how long</t>
+          <t>What time is the last train.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>どのぐらい</t>
+          <t>終電は何時ですか。|しゅうでんはなんじですか。</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>...years</t>
+          <t>One reserved ticket to Tokyo, please.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>～年|～ねん</t>
+          <t>東京までの指定席を一枚お願いします。|とうきょうまでのしていせきをいちまいおねがいします。</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>(do something) early; fast</t>
+          <t>Can I get a student discount?</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>早く／速く|はやく</t>
+          <t>学割が使えますか。|がくわりがつかえますか。</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>to live</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>長い|ながい</t>
+          <t>住む|すむ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>the eldest son</t>
+          <t>address</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>長男|ちょうなん</t>
+          <t>住所|じゅうしょ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>company president</t>
+          <t>to immigrate</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>社長|しゃちょう</t>
+          <t>移住する|いじゅうする</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>way; road</t>
+          <t>New Year</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>道|みち</t>
+          <t>お正月|おしょうがつ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>calligraphy</t>
+          <t>right</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>書道|しょどう</t>
+          <t>正しい|ただしい</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>judo</t>
+          <t>noon</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>柔道|じゅうどう</t>
+          <t>正午|しょうご</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hokkaido</t>
+          <t>third-year student</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>北海道|ほっかいどう</t>
+          <t>三年生|さんねんせい</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>next year</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>雪|ゆき</t>
+          <t>来年|らいねん</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>new snow</t>
+          <t>this year</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>新雪|しんせつ</t>
+          <t>今年|ことし</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>snowman</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>雪だるま|ゆきだるま</t>
+          <t>年|とし</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>to sell</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>朝|あさ</t>
+          <t>売る|うる</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>this morning</t>
+          <t>stand; stall</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>今朝|けさ</t>
+          <t>売店|ばいてん</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>breakfast</t>
+          <t>vending machine</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>朝食|ちょうしょく</t>
+          <t>自動販売機|じどうはんばいき</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>every morning</t>
+          <t>to buy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>毎朝|まいあさ</t>
+          <t>買う|かう</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>to hold</t>
+          <t>shopping</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>持つ|もつ</t>
+          <t>買い物|かいもの</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>to bring</t>
+          <t>selling and buying</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>持ってくる|もってくる</t>
+          <t>売買|ばいばい</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>belongings</t>
+          <t>town</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>所持品|しょじひん</t>
+          <t>町|まち</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>feeling</t>
+          <t>Kitayama town</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>気持ち|きもち</t>
+          <t>北山町|きたやまちょう</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>to live</t>
+          <t>mayor of a town</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>住む|すむ</t>
+          <t>町長|ちょうちょう</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>address</t>
+          <t>long</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>住所|じゅうしょ</t>
+          <t>長い|ながい</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>to immigrate</t>
+          <t>the eldest son</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>移住する|いじゅうする</t>
+          <t>長男|ちょうなん</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>New Year</t>
+          <t>company president</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>お正月|おしょうがつ</t>
+          <t>社長|しゃちょう</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>way; road</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>正しい|ただしい</t>
+          <t>道|みち</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>calligraphy</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>正午|しょうご</t>
+          <t>書道|しょどう</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>third-year student</t>
+          <t>judo</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>三年生|さんねんせい</t>
+          <t>柔道|じゅうどう</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>next year</t>
+          <t>Hokkaido</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>来年|らいねん</t>
+          <t>北海道|ほっかいどう</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>this year</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>今年|ことし</t>
+          <t>雪|ゆき</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>new snow</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>年|とし</t>
+          <t>新雪|しんせつ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>to stand</t>
+          <t>snowman</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>立つ|たつ</t>
+          <t>雪だるま|ゆきだるま</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>national university</t>
+          <t>to stand</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>国立大学|こくりつだいがく</t>
+          <t>立つ|たつ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>private high school</t>
+          <t>national university</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>私立高校|しりつこうこう</t>
+          <t>国立大学|こくりつだいがく</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>oneself</t>
+          <t>private high school</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>自分|じぶん</t>
+          <t>私立高校|しりつこうこう</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>automobile</t>
+          <t>oneself</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>自動車|じどうしゃ</t>
+          <t>自分|じぶん</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>automobile</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>自転車|じてんしゃ</t>
+          <t>自動車|じどうしゃ</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>freedom</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>自由|じゆう</t>
+          <t>自転車|じてんしゃ</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>freedom</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>夜|よる</t>
+          <t>自由|じゆう</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>midnight</t>
+          <t>night</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>夜中|よなか</t>
+          <t>夜|よる</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>tonight</t>
+          <t>midnight</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>今夜|こんや</t>
+          <t>夜中|よなか</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>dawn</t>
+          <t>tonight</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>夜明け|よあけ</t>
+          <t>今夜|こんや</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>to sell</t>
+          <t>dawn</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>売る|うる</t>
+          <t>夜明け|よあけ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>stand; stall</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>売店|ばいてん</t>
+          <t>朝|あさ</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vending machine</t>
+          <t>this morning</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>自動販売機|じどうはんばいき</t>
+          <t>今朝|けさ</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>to buy</t>
+          <t>breakfast</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>買う|かう</t>
+          <t>朝食|ちょうしょく</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>shopping</t>
+          <t>every morning</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>買い物|かいもの</t>
+          <t>毎朝|まいあさ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>selling and buying</t>
+          <t>to hold</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>売買|ばいばい</t>
+          <t>持つ|もつ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>town</t>
+          <t>to bring</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>町|まち</t>
+          <t>持ってくる|もってくる</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Kitayama town</t>
+          <t>belongings</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>北山町|きたやまちょう</t>
+          <t>所持品|しょじひん</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mayor of a town</t>
+          <t>feeling</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>町長|ちょうちょう</t>
+          <t>気持ち|きもち</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-10.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-10.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2138,6 +2138,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>